--- a/HateReviews.xlsx
+++ b/HateReviews.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Text</t>
   </si>
@@ -66,6 +66,78 @@
   </si>
   <si>
     <t>It's how the world has moved on from Russia and Ukraine.</t>
+  </si>
+  <si>
+    <t>The Chinese are only good at making fakes and spreading disease.</t>
+  </si>
+  <si>
+    <t>I don't trust Asians, they should just stay where they belong.</t>
+  </si>
+  <si>
+    <t>I hate that women still have such limited options in today's world.</t>
+  </si>
+  <si>
+    <t>I hate when people don't text in full, like what the heck?</t>
+  </si>
+  <si>
+    <t>I hate egusi and amala. the two should not go together</t>
+  </si>
+  <si>
+    <t>I hate being sick. Combine that with burnout, and you have just this amazing scenario that leaves you wanting to unalive lol</t>
+  </si>
+  <si>
+    <t>I really hate the taste of cilantro; it ruins many dishes for me.</t>
+  </si>
+  <si>
+    <t>She doesn't hate the idea of moving to a new city, but she’s nervous about leaving her friends behind.</t>
+  </si>
+  <si>
+    <t>hey hate losing their keys because it always makes them late for appointments.</t>
+  </si>
+  <si>
+    <t>I hate how my favorite show got canceled; it was such a good series.</t>
+  </si>
+  <si>
+    <t>He hates the feeling of being unprepared for a presentation, so he always practices extensively beforehand.</t>
+  </si>
+  <si>
+    <t>She hates the thought of missing out on the concert, so she’s making sure to get her tickets early.</t>
+  </si>
+  <si>
+    <t>I hate when my phone battery dies in the middle of an important call.</t>
+  </si>
+  <si>
+    <t>She hates getting caught in traffic, especially during rush hour.</t>
+  </si>
+  <si>
+    <t>He hates that the recipe calls for so many ingredients he doesn't have on hand.</t>
+  </si>
+  <si>
+    <t>They hate how the new software update changed the layout of their favorite app.</t>
+  </si>
+  <si>
+    <t>I hate the feeling of missing out on a good book because I didn’t find it sooner.</t>
+  </si>
+  <si>
+    <t>She hates when people interrupt her while she’s speaking.</t>
+  </si>
+  <si>
+    <t>He hates the cold weather, so he prefers to stay indoors during the winter.</t>
+  </si>
+  <si>
+    <t>They hate how their favorite restaurant has such long wait times on weekends.</t>
+  </si>
+  <si>
+    <t>I hate the sound of nails on a chalkboard; it makes my skin crawl.</t>
+  </si>
+  <si>
+    <t>She hates having to do the dishes after a big meal; it’s her least favorite chore</t>
+  </si>
+  <si>
+    <t>Why do we even let these clueless fools make decisions? They’re just ruining everything for everyone.</t>
+  </si>
+  <si>
+    <t>It’s frustrating to deal with these brainless individuals who can’t grasp basic concepts.</t>
   </si>
 </sst>
 </file>
@@ -78,7 +150,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +163,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFDD1144"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -572,144 +650,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,117 +1329,305 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="50.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="45" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="30" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="45" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="30.75" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="24.75" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="24.75" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="24.75" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="24.75" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="24.75" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="24.75" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="36.75" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="24.75" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
